--- a/V2.0/상호변환편집/어휘속성작업물(논어주소1)_converted.xlsx
+++ b/V2.0/상호변환편집/어휘속성작업물(논어주소1)_converted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaien\Downloads\REPOSITORY\private725\LX2024\tools\V2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaien\Downloads\REPOSITORY\private725\LX2024\tools\V2.0\상호변환편집\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D41956-F461-4AFB-86E6-5402AE56C9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC4305D-9CAB-42A3-A8C9-A0D39C3AFB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16335" yWindow="-16320" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>기본</t>
   </si>
@@ -58,6 +58,9 @@
     <t>용례 식별자</t>
   </si>
   <si>
+    <t>출전정보 식별자</t>
+  </si>
+  <si>
     <t>출전정보</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>use-jti_1h0201-1</t>
   </si>
   <si>
+    <t>jti_1h02_0</t>
+  </si>
+  <si>
     <t>論語注疏.欽定四庫全書總目 論語正義二十卷</t>
   </si>
   <si>
@@ -131,27 +137,6 @@
   </si>
   <si>
     <t>《논어정의(論語正義)》 20권은 위(魏)나라 하안(何晏)이 주(注)를 달고 송(宋)나라 [=형병(邢昺)]이 소(疏)를 낸 것이다.</t>
-  </si>
-  <si>
-    <t>I_jti_1h02_3</t>
-  </si>
-  <si>
-    <t>叔明</t>
-  </si>
-  <si>
-    <t>숙명</t>
-  </si>
-  <si>
-    <t>형병(邢昺)의 자(字).</t>
-  </si>
-  <si>
-    <t>use-jti_1h0201-2</t>
-  </si>
-  <si>
-    <t>昺字[=叔明]이니 曹州濟陰人이라</t>
-  </si>
-  <si>
-    <t>형병(邢昺)의 자(字)는 [=숙명(叔明)]으로 조주(曹州) 제음(濟陰) 사람이다.</t>
   </si>
 </sst>
 </file>
@@ -526,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -551,17 +536,19 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -597,63 +584,69 @@
         <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
         <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
       </c>
       <c r="P4" t="s">
         <v>29</v>
@@ -661,88 +654,59 @@
       <c r="Q4" t="s">
         <v>30</v>
       </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
